--- a/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
@@ -7590,7 +7590,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D164" t="n">

--- a/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,34 +451,34 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>standing</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>points</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>goals_scored</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>goals_conceded</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>points</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>goals_difference</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>total_matches</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>tiebreaker</t>
@@ -487,11 +487,6 @@
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tie_won</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>matches_flag</t>
         </is>
       </c>
     </row>
@@ -510,22 +505,22 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -534,9 +529,6 @@
       </c>
       <c r="K2" t="n">
         <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -554,19 +546,19 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -578,9 +570,6 @@
       </c>
       <c r="K3" t="n">
         <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -598,22 +587,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>-3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -622,9 +611,6 @@
       </c>
       <c r="K4" t="n">
         <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -642,22 +628,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>-7</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -666,9 +652,6 @@
       </c>
       <c r="K5" t="n">
         <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -686,22 +669,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -710,9 +693,6 @@
       </c>
       <c r="K6" t="n">
         <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -739,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -754,9 +734,6 @@
       </c>
       <c r="K7" t="n">
         <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -774,22 +751,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -798,9 +775,6 @@
       </c>
       <c r="K8" t="n">
         <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -818,22 +792,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
         <v>-1</v>
       </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -842,9 +816,6 @@
       </c>
       <c r="K9" t="n">
         <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -862,22 +833,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -886,9 +857,6 @@
       </c>
       <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -909,16 +877,16 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -930,9 +898,6 @@
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -953,19 +918,19 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -974,9 +939,6 @@
       </c>
       <c r="K12" t="n">
         <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -994,22 +956,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
         <v>5</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>-3</v>
       </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1018,9 +980,6 @@
       </c>
       <c r="K13" t="n">
         <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1038,22 +997,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1062,9 +1021,6 @@
       </c>
       <c r="K14" t="n">
         <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1085,16 +1041,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1106,9 +1062,6 @@
       </c>
       <c r="K15" t="n">
         <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1132,16 +1085,16 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1150,9 +1103,6 @@
       </c>
       <c r="K16" t="n">
         <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1170,22 +1120,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
         <v>-3</v>
       </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1194,9 +1144,6 @@
       </c>
       <c r="K17" t="n">
         <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1214,22 +1161,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1238,9 +1185,6 @@
       </c>
       <c r="K18" t="n">
         <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1258,19 +1202,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -1282,9 +1226,6 @@
       </c>
       <c r="K19" t="n">
         <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1302,22 +1243,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1326,9 +1267,6 @@
       </c>
       <c r="K20" t="n">
         <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1346,22 +1284,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
         <v>-1</v>
       </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1370,9 +1308,6 @@
       </c>
       <c r="K21" t="n">
         <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1390,22 +1325,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1414,9 +1349,6 @@
       </c>
       <c r="K22" t="n">
         <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1434,19 +1366,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -1458,9 +1390,6 @@
       </c>
       <c r="K23" t="n">
         <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1478,22 +1407,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1502,9 +1431,6 @@
       </c>
       <c r="K24" t="n">
         <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1522,22 +1448,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
         <v>-3</v>
       </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1546,9 +1472,6 @@
       </c>
       <c r="K25" t="n">
         <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1566,22 +1489,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1590,9 +1513,6 @@
       </c>
       <c r="K26" t="n">
         <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1613,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
@@ -1634,9 +1554,6 @@
       </c>
       <c r="K27" t="n">
         <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1654,22 +1571,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
         <v>-2</v>
       </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1678,9 +1595,6 @@
       </c>
       <c r="K28" t="n">
         <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1698,22 +1612,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
         <v>-2</v>
       </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1722,9 +1636,6 @@
       </c>
       <c r="K29" t="n">
         <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1742,22 +1653,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1766,9 +1677,6 @@
       </c>
       <c r="K30" t="n">
         <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1789,16 +1697,16 @@
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -1810,9 +1718,6 @@
       </c>
       <c r="K31" t="n">
         <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1830,7 +1735,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
@@ -1839,13 +1744,13 @@
         <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1854,9 +1759,6 @@
       </c>
       <c r="K32" t="n">
         <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1874,22 +1776,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
         <v>-2</v>
       </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1898,9 +1800,6 @@
       </c>
       <c r="K33" t="n">
         <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1918,22 +1817,22 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
-      </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>5</v>
       </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1942,9 +1841,6 @@
       </c>
       <c r="K34" t="n">
         <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1968,14 +1864,14 @@
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
         <v>-1</v>
       </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
       <c r="I35" t="n">
         <v>2</v>
       </c>
@@ -1986,9 +1882,6 @@
       </c>
       <c r="K35" t="n">
         <v>1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2015,13 +1908,13 @@
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2030,9 +1923,6 @@
       </c>
       <c r="K36" t="n">
         <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2050,22 +1940,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
         <v>5</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>-4</v>
       </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2074,9 +1964,6 @@
       </c>
       <c r="K37" t="n">
         <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2094,22 +1981,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2118,9 +2005,6 @@
       </c>
       <c r="K38" t="n">
         <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2141,16 +2025,16 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -2162,9 +2046,6 @@
       </c>
       <c r="K39" t="n">
         <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2182,22 +2063,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
         <v>-3</v>
       </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2206,9 +2087,6 @@
       </c>
       <c r="K40" t="n">
         <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2226,22 +2104,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
         <v>-2</v>
       </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2250,9 +2128,6 @@
       </c>
       <c r="K41" t="n">
         <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2270,13 +2145,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2285,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2294,9 +2169,6 @@
       </c>
       <c r="K42" t="n">
         <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2314,7 +2186,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
@@ -2323,10 +2195,10 @@
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -2338,9 +2210,6 @@
       </c>
       <c r="K43" t="n">
         <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2358,22 +2227,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
         <v>-1</v>
       </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2382,9 +2251,6 @@
       </c>
       <c r="K44" t="n">
         <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2402,22 +2268,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
         <v>-1</v>
       </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2426,9 +2292,6 @@
       </c>
       <c r="K45" t="n">
         <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2446,22 +2309,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2470,9 +2333,6 @@
       </c>
       <c r="K46" t="n">
         <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2496,14 +2356,14 @@
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
         <v>-1</v>
       </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
@@ -2514,9 +2374,6 @@
       </c>
       <c r="K47" t="n">
         <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2534,22 +2391,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
         <v>-1</v>
       </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2558,9 +2415,6 @@
       </c>
       <c r="K48" t="n">
         <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2578,22 +2432,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
         <v>-1</v>
       </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2602,9 +2456,6 @@
       </c>
       <c r="K49" t="n">
         <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2622,22 +2473,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2646,9 +2497,6 @@
       </c>
       <c r="K50" t="n">
         <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2666,19 +2514,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -2690,9 +2538,6 @@
       </c>
       <c r="K51" t="n">
         <v>1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2710,22 +2555,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2734,9 +2579,6 @@
       </c>
       <c r="K52" t="n">
         <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2757,19 +2599,19 @@
         <v>4</v>
       </c>
       <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
         <v>5</v>
       </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>-1</v>
       </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2778,9 +2620,6 @@
       </c>
       <c r="K53" t="n">
         <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2798,22 +2637,22 @@
         </is>
       </c>
       <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" t="n">
         <v>5</v>
       </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>6</v>
-      </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2822,9 +2661,6 @@
       </c>
       <c r="K54" t="n">
         <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2842,19 +2678,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -2866,9 +2702,6 @@
       </c>
       <c r="K55" t="n">
         <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2886,22 +2719,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
         <v>-2</v>
       </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2910,9 +2743,6 @@
       </c>
       <c r="K56" t="n">
         <v>1</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2930,22 +2760,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>6</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>-6</v>
       </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2954,9 +2784,6 @@
       </c>
       <c r="K57" t="n">
         <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2974,22 +2801,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2998,9 +2825,6 @@
       </c>
       <c r="K58" t="n">
         <v>1</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3021,16 +2845,16 @@
         <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -3042,9 +2866,6 @@
       </c>
       <c r="K59" t="n">
         <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3065,19 +2886,19 @@
         <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3086,9 +2907,6 @@
       </c>
       <c r="K60" t="n">
         <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3106,22 +2924,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="n">
         <v>-3</v>
       </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3130,9 +2948,6 @@
       </c>
       <c r="K61" t="n">
         <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3150,22 +2965,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3174,9 +2989,6 @@
       </c>
       <c r="K62" t="n">
         <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3194,13 +3006,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3218,9 +3030,6 @@
       </c>
       <c r="K63" t="n">
         <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -3238,7 +3047,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -3247,13 +3056,13 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3262,9 +3071,6 @@
       </c>
       <c r="K64" t="n">
         <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -3282,22 +3088,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
         <v>-3</v>
       </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3306,9 +3112,6 @@
       </c>
       <c r="K65" t="n">
         <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3326,22 +3129,22 @@
         </is>
       </c>
       <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="n">
         <v>6</v>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4</v>
-      </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
         <v>5</v>
       </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3350,9 +3153,6 @@
       </c>
       <c r="K66" t="n">
         <v>1</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3373,13 +3173,13 @@
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -3394,9 +3194,6 @@
       </c>
       <c r="K67" t="n">
         <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3414,22 +3211,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3438,9 +3235,6 @@
       </c>
       <c r="K68" t="n">
         <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3458,22 +3252,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>7</v>
       </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>-7</v>
       </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3482,9 +3276,6 @@
       </c>
       <c r="K69" t="n">
         <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3502,22 +3293,22 @@
         </is>
       </c>
       <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6</v>
+      </c>
+      <c r="F70" t="n">
         <v>5</v>
       </c>
-      <c r="E70" t="n">
-        <v>3</v>
-      </c>
-      <c r="F70" t="n">
-        <v>6</v>
-      </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3526,9 +3317,6 @@
       </c>
       <c r="K70" t="n">
         <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3546,19 +3334,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -3570,9 +3358,6 @@
       </c>
       <c r="K71" t="n">
         <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3593,19 +3378,19 @@
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="n">
         <v>-1</v>
       </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3614,9 +3399,6 @@
       </c>
       <c r="K72" t="n">
         <v>1</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3634,22 +3416,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
         <v>-1</v>
       </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3658,9 +3440,6 @@
       </c>
       <c r="K73" t="n">
         <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3678,22 +3457,22 @@
         </is>
       </c>
       <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" t="n">
         <v>5</v>
       </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="n">
-        <v>6</v>
-      </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3702,9 +3481,6 @@
       </c>
       <c r="K74" t="n">
         <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3728,14 +3504,14 @@
         <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
         <v>-1</v>
       </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
       <c r="I75" t="n">
         <v>2</v>
       </c>
@@ -3746,9 +3522,6 @@
       </c>
       <c r="K75" t="n">
         <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3766,22 +3539,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
         <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="n">
         <v>-1</v>
       </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3790,9 +3563,6 @@
       </c>
       <c r="K76" t="n">
         <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3810,22 +3580,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="n">
         <v>-2</v>
       </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3834,9 +3604,6 @@
       </c>
       <c r="K77" t="n">
         <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -3854,22 +3621,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3878,9 +3645,6 @@
       </c>
       <c r="K78" t="n">
         <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -3898,19 +3662,19 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -3922,9 +3686,6 @@
       </c>
       <c r="K79" t="n">
         <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -3942,22 +3703,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
         <v>-1</v>
       </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3966,9 +3727,6 @@
       </c>
       <c r="K80" t="n">
         <v>1</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -3986,22 +3744,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="n">
         <v>-2</v>
       </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4010,9 +3768,6 @@
       </c>
       <c r="K81" t="n">
         <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -4030,22 +3785,22 @@
         </is>
       </c>
       <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" t="n">
         <v>7</v>
       </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
         <v>6</v>
       </c>
-      <c r="G82" t="n">
-        <v>6</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4054,9 +3809,6 @@
       </c>
       <c r="K82" t="n">
         <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -4074,19 +3826,19 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -4098,9 +3850,6 @@
       </c>
       <c r="K83" t="n">
         <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -4118,22 +3867,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="n">
         <v>-3</v>
       </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4142,9 +3891,6 @@
       </c>
       <c r="K84" t="n">
         <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4162,22 +3908,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
       </c>
       <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="n">
         <v>-3</v>
       </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4186,9 +3932,6 @@
       </c>
       <c r="K85" t="n">
         <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4206,22 +3949,22 @@
         </is>
       </c>
       <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
         <v>6</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4230,9 +3973,6 @@
       </c>
       <c r="K86" t="n">
         <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -4250,19 +3990,19 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -4274,9 +4014,6 @@
       </c>
       <c r="K87" t="n">
         <v>1</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -4294,22 +4031,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="n">
         <v>-2</v>
       </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4318,9 +4055,6 @@
       </c>
       <c r="K88" t="n">
         <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -4338,22 +4072,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="n">
         <v>-3</v>
       </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4362,9 +4096,6 @@
       </c>
       <c r="K89" t="n">
         <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -4382,22 +4113,22 @@
         </is>
       </c>
       <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="n">
         <v>5</v>
       </c>
-      <c r="E90" t="n">
-        <v>2</v>
-      </c>
-      <c r="F90" t="n">
-        <v>4</v>
-      </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4406,9 +4137,6 @@
       </c>
       <c r="K90" t="n">
         <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4426,20 +4154,20 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" t="n">
         <v>5</v>
       </c>
-      <c r="F91" t="n">
-        <v>3</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>-2</v>
       </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
       <c r="I91" t="n">
         <v>2</v>
       </c>
@@ -4450,9 +4178,6 @@
       </c>
       <c r="K91" t="n">
         <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -4470,7 +4195,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -4479,13 +4204,13 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4494,9 +4219,6 @@
       </c>
       <c r="K92" t="n">
         <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -4514,22 +4236,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="n">
         <v>-1</v>
       </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4538,9 +4260,6 @@
       </c>
       <c r="K93" t="n">
         <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -4558,22 +4277,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4582,9 +4301,6 @@
       </c>
       <c r="K94" t="n">
         <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -4602,7 +4318,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -4611,10 +4327,10 @@
         <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -4626,9 +4342,6 @@
       </c>
       <c r="K95" t="n">
         <v>1</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -4655,13 +4368,13 @@
         <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4670,9 +4383,6 @@
       </c>
       <c r="K96" t="n">
         <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4690,22 +4400,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
+        <v>3</v>
+      </c>
+      <c r="H97" t="n">
         <v>-2</v>
       </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4714,9 +4424,6 @@
       </c>
       <c r="K97" t="n">
         <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -4734,22 +4441,22 @@
         </is>
       </c>
       <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
         <v>5</v>
       </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>4</v>
-      </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4758,9 +4465,6 @@
       </c>
       <c r="K98" t="n">
         <v>1</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4778,10 +4482,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>4</v>
@@ -4802,9 +4506,6 @@
       </c>
       <c r="K99" t="n">
         <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -4822,7 +4523,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -4831,13 +4532,13 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4846,9 +4547,6 @@
       </c>
       <c r="K100" t="n">
         <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4866,22 +4564,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
         <v>7</v>
       </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>-6</v>
       </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4890,9 +4588,6 @@
       </c>
       <c r="K101" t="n">
         <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -4910,22 +4605,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4934,9 +4629,6 @@
       </c>
       <c r="K102" t="n">
         <v>1</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -4954,19 +4646,19 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
         <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -4978,9 +4670,6 @@
       </c>
       <c r="K103" t="n">
         <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -4998,22 +4687,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="n">
         <v>-1</v>
       </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5022,9 +4711,6 @@
       </c>
       <c r="K104" t="n">
         <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -5042,22 +4728,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
         <v>5</v>
       </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>-2</v>
       </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5066,9 +4752,6 @@
       </c>
       <c r="K105" t="n">
         <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -5086,22 +4769,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F106" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5110,9 +4793,6 @@
       </c>
       <c r="K106" t="n">
         <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -5133,16 +4813,16 @@
         <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -5154,9 +4834,6 @@
       </c>
       <c r="K107" t="n">
         <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -5174,22 +4851,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="n">
         <v>-1</v>
       </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5198,9 +4875,6 @@
       </c>
       <c r="K108" t="n">
         <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -5218,22 +4892,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="n">
         <v>-3</v>
       </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -5242,9 +4916,6 @@
       </c>
       <c r="K109" t="n">
         <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -5262,22 +4933,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5286,9 +4957,6 @@
       </c>
       <c r="K110" t="n">
         <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -5306,7 +4974,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
@@ -5315,10 +4983,10 @@
         <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -5330,9 +4998,6 @@
       </c>
       <c r="K111" t="n">
         <v>1</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -5359,13 +5024,13 @@
         <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5374,9 +5039,6 @@
       </c>
       <c r="K112" t="n">
         <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -5394,22 +5056,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="n">
         <v>-1</v>
       </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5418,9 +5080,6 @@
       </c>
       <c r="K113" t="n">
         <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -5438,22 +5097,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5462,9 +5121,6 @@
       </c>
       <c r="K114" t="n">
         <v>1</v>
-      </c>
-      <c r="L114" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -5482,19 +5138,19 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -5506,9 +5162,6 @@
       </c>
       <c r="K115" t="n">
         <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -5526,22 +5179,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5550,9 +5203,6 @@
       </c>
       <c r="K116" t="n">
         <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -5570,22 +5220,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H117" t="n">
         <v>-4</v>
       </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5594,9 +5244,6 @@
       </c>
       <c r="K117" t="n">
         <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -5614,22 +5261,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5638,9 +5285,6 @@
       </c>
       <c r="K118" t="n">
         <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -5658,19 +5302,19 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -5682,9 +5326,6 @@
       </c>
       <c r="K119" t="n">
         <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -5702,22 +5343,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
+        <v>3</v>
+      </c>
+      <c r="H120" t="n">
         <v>-1</v>
       </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5726,9 +5367,6 @@
       </c>
       <c r="K120" t="n">
         <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -5746,22 +5384,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
+        <v>4</v>
+      </c>
+      <c r="H121" t="n">
         <v>-4</v>
       </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -5770,9 +5408,6 @@
       </c>
       <c r="K121" t="n">
         <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -5790,22 +5425,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5814,9 +5449,6 @@
       </c>
       <c r="K122" t="n">
         <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -5834,19 +5466,19 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F123" t="n">
         <v>3</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -5858,9 +5490,6 @@
       </c>
       <c r="K123" t="n">
         <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -5878,22 +5507,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
       </c>
       <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="n">
         <v>-1</v>
       </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5902,9 +5531,6 @@
       </c>
       <c r="K124" t="n">
         <v>1</v>
-      </c>
-      <c r="L124" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -5922,22 +5548,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
       </c>
       <c r="G125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H125" t="n">
         <v>-3</v>
       </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -5946,9 +5572,6 @@
       </c>
       <c r="K125" t="n">
         <v>0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -5966,22 +5589,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -5990,9 +5613,6 @@
       </c>
       <c r="K126" t="n">
         <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -6019,10 +5639,10 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -6034,9 +5654,6 @@
       </c>
       <c r="K127" t="n">
         <v>1</v>
-      </c>
-      <c r="L127" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -6054,22 +5671,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -6078,9 +5695,6 @@
       </c>
       <c r="K128" t="n">
         <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -6098,22 +5712,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="n">
         <v>-2</v>
       </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
       <c r="I129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6122,9 +5736,6 @@
       </c>
       <c r="K129" t="n">
         <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -6142,22 +5753,22 @@
         </is>
       </c>
       <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
         <v>6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>6</v>
       </c>
       <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
         <v>6</v>
       </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6166,9 +5777,6 @@
       </c>
       <c r="K130" t="n">
         <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -6186,16 +5794,16 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>2</v>
@@ -6210,9 +5818,6 @@
       </c>
       <c r="K131" t="n">
         <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -6230,22 +5835,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
       </c>
       <c r="G132" t="n">
+        <v>4</v>
+      </c>
+      <c r="H132" t="n">
         <v>-3</v>
       </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -6254,9 +5859,6 @@
       </c>
       <c r="K132" t="n">
         <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -6274,22 +5876,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
         <v>5</v>
       </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
+      <c r="H133" t="n">
         <v>-5</v>
       </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -6298,9 +5900,6 @@
       </c>
       <c r="K133" t="n">
         <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -6318,22 +5917,22 @@
         </is>
       </c>
       <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6</v>
+      </c>
+      <c r="F134" t="n">
         <v>5</v>
       </c>
-      <c r="E134" t="n">
-        <v>1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>6</v>
-      </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -6342,9 +5941,6 @@
       </c>
       <c r="K134" t="n">
         <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -6362,20 +5958,20 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
         <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
+        <v>3</v>
+      </c>
+      <c r="H135" t="n">
         <v>-2</v>
       </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
@@ -6386,9 +5982,6 @@
       </c>
       <c r="K135" t="n">
         <v>1</v>
-      </c>
-      <c r="L135" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -6406,22 +5999,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6430,9 +6023,6 @@
       </c>
       <c r="K136" t="n">
         <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -6450,22 +6040,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="n">
         <v>-2</v>
       </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
       <c r="I137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6474,9 +6064,6 @@
       </c>
       <c r="K137" t="n">
         <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -6494,22 +6081,22 @@
         </is>
       </c>
       <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6</v>
+      </c>
+      <c r="F138" t="n">
         <v>5</v>
       </c>
-      <c r="E138" t="n">
-        <v>2</v>
-      </c>
-      <c r="F138" t="n">
-        <v>6</v>
-      </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -6518,9 +6105,6 @@
       </c>
       <c r="K138" t="n">
         <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -6538,19 +6122,19 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -6562,9 +6146,6 @@
       </c>
       <c r="K139" t="n">
         <v>1</v>
-      </c>
-      <c r="L139" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -6591,13 +6172,13 @@
         <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -6606,9 +6187,6 @@
       </c>
       <c r="K140" t="n">
         <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -6626,22 +6204,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
         <v>5</v>
       </c>
-      <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
         <v>-3</v>
       </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -6650,9 +6228,6 @@
       </c>
       <c r="K141" t="n">
         <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -6670,22 +6245,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -6694,9 +6269,6 @@
       </c>
       <c r="K142" t="n">
         <v>1</v>
-      </c>
-      <c r="L142" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -6714,19 +6286,19 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>2</v>
@@ -6738,9 +6310,6 @@
       </c>
       <c r="K143" t="n">
         <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -6758,22 +6327,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
       </c>
       <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
         <v>-1</v>
       </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -6782,9 +6351,6 @@
       </c>
       <c r="K144" t="n">
         <v>1</v>
-      </c>
-      <c r="L144" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -6802,22 +6368,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="n">
         <v>-2</v>
       </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -6826,9 +6392,6 @@
       </c>
       <c r="K145" t="n">
         <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -6849,19 +6412,19 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -6870,9 +6433,6 @@
       </c>
       <c r="K146" t="n">
         <v>0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -6893,16 +6453,16 @@
         <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -6914,9 +6474,6 @@
       </c>
       <c r="K147" t="n">
         <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -6934,22 +6491,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -6958,9 +6515,6 @@
       </c>
       <c r="K148" t="n">
         <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -6978,22 +6532,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
+        <v>3</v>
+      </c>
+      <c r="H149" t="n">
         <v>-1</v>
       </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
       <c r="I149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -7002,9 +6556,6 @@
       </c>
       <c r="K149" t="n">
         <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -7022,22 +6573,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -7046,9 +6597,6 @@
       </c>
       <c r="K150" t="n">
         <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -7066,19 +6614,19 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
         <v>3</v>
       </c>
       <c r="F151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -7090,9 +6638,6 @@
       </c>
       <c r="K151" t="n">
         <v>1</v>
-      </c>
-      <c r="L151" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -7110,22 +6655,22 @@
         </is>
       </c>
       <c r="D152" t="n">
+        <v>3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3</v>
+      </c>
+      <c r="F152" t="n">
         <v>5</v>
       </c>
-      <c r="E152" t="n">
-        <v>4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3</v>
-      </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -7134,9 +6679,6 @@
       </c>
       <c r="K152" t="n">
         <v>0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -7154,22 +6696,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
       </c>
       <c r="G153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H153" t="n">
         <v>-3</v>
       </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
       <c r="I153" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -7178,9 +6720,6 @@
       </c>
       <c r="K153" t="n">
         <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -7198,22 +6737,22 @@
         </is>
       </c>
       <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6</v>
+      </c>
+      <c r="F154" t="n">
         <v>7</v>
       </c>
-      <c r="E154" t="n">
-        <v>1</v>
-      </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
         <v>6</v>
       </c>
-      <c r="G154" t="n">
-        <v>6</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -7222,9 +6761,6 @@
       </c>
       <c r="K154" t="n">
         <v>0</v>
-      </c>
-      <c r="L154" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -7242,10 +6778,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F155" t="n">
         <v>4</v>
@@ -7266,9 +6802,6 @@
       </c>
       <c r="K155" t="n">
         <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -7286,22 +6819,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
         <v>6</v>
       </c>
-      <c r="F156" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" t="n">
+      <c r="H156" t="n">
         <v>-4</v>
       </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -7310,9 +6843,6 @@
       </c>
       <c r="K156" t="n">
         <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -7330,22 +6860,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
         <v>5</v>
       </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="n">
+      <c r="H157" t="n">
         <v>-4</v>
       </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
       <c r="I157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -7354,9 +6884,6 @@
       </c>
       <c r="K157" t="n">
         <v>0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -7374,22 +6901,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F158" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G158" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -7398,9 +6925,6 @@
       </c>
       <c r="K158" t="n">
         <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -7421,16 +6945,16 @@
         <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -7442,9 +6966,6 @@
       </c>
       <c r="K159" t="n">
         <v>0</v>
-      </c>
-      <c r="L159" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -7465,19 +6986,19 @@
         <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
+        <v>4</v>
+      </c>
+      <c r="H160" t="n">
         <v>-1</v>
       </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -7486,9 +7007,6 @@
       </c>
       <c r="K160" t="n">
         <v>1</v>
-      </c>
-      <c r="L160" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -7506,22 +7024,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2</v>
+      </c>
+      <c r="G161" t="n">
         <v>5</v>
       </c>
-      <c r="F161" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" t="n">
+      <c r="H161" t="n">
         <v>-3</v>
       </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
       <c r="I161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -7530,9 +7048,6 @@
       </c>
       <c r="K161" t="n">
         <v>0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -7550,22 +7065,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -7574,9 +7089,6 @@
       </c>
       <c r="K162" t="n">
         <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -7603,10 +7115,10 @@
         <v>2</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -7618,9 +7130,6 @@
       </c>
       <c r="K163" t="n">
         <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -7638,7 +7147,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
@@ -7647,13 +7156,13 @@
         <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -7662,9 +7171,6 @@
       </c>
       <c r="K164" t="n">
         <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -7682,22 +7188,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
       </c>
       <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="n">
         <v>-1</v>
       </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
       <c r="I165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -7706,9 +7212,6 @@
       </c>
       <c r="K165" t="n">
         <v>0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -7726,22 +7229,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -7750,9 +7253,6 @@
       </c>
       <c r="K166" t="n">
         <v>1</v>
-      </c>
-      <c r="L166" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -7770,19 +7270,19 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -7794,9 +7294,6 @@
       </c>
       <c r="K167" t="n">
         <v>0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -7817,19 +7314,19 @@
         <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F168" t="n">
         <v>3</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -7838,9 +7335,6 @@
       </c>
       <c r="K168" t="n">
         <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -7858,22 +7352,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" t="n">
         <v>5</v>
       </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
         <v>-3</v>
       </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
       <c r="I169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -7882,9 +7376,6 @@
       </c>
       <c r="K169" t="n">
         <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -7902,22 +7393,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G170" t="n">
+        <v>4</v>
+      </c>
+      <c r="H170" t="n">
         <v>-2</v>
       </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -7926,9 +7417,6 @@
       </c>
       <c r="K170" t="n">
         <v>1</v>
-      </c>
-      <c r="L170" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -7946,19 +7434,19 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F171" t="n">
         <v>3</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -7970,9 +7458,6 @@
       </c>
       <c r="K171" t="n">
         <v>0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -7990,22 +7475,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -8014,9 +7499,6 @@
       </c>
       <c r="K172" t="n">
         <v>0</v>
-      </c>
-      <c r="L172" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -8034,22 +7516,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -8058,9 +7540,6 @@
       </c>
       <c r="K173" t="n">
         <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -8078,22 +7557,22 @@
         </is>
       </c>
       <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6</v>
+      </c>
+      <c r="F174" t="n">
         <v>5</v>
       </c>
-      <c r="E174" t="n">
-        <v>1</v>
-      </c>
-      <c r="F174" t="n">
-        <v>6</v>
-      </c>
       <c r="G174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -8102,9 +7581,6 @@
       </c>
       <c r="K174" t="n">
         <v>0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -8122,20 +7598,20 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F175" t="n">
         <v>3</v>
       </c>
       <c r="G175" t="n">
+        <v>4</v>
+      </c>
+      <c r="H175" t="n">
         <v>-1</v>
       </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
       <c r="I175" t="n">
         <v>2</v>
       </c>
@@ -8146,9 +7622,6 @@
       </c>
       <c r="K175" t="n">
         <v>0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -8166,22 +7639,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
+        <v>3</v>
+      </c>
+      <c r="H176" t="n">
         <v>-1</v>
       </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -8190,9 +7663,6 @@
       </c>
       <c r="K176" t="n">
         <v>1</v>
-      </c>
-      <c r="L176" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -8210,22 +7680,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G177" t="n">
+        <v>4</v>
+      </c>
+      <c r="H177" t="n">
         <v>-2</v>
       </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
       <c r="I177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -8234,9 +7704,6 @@
       </c>
       <c r="K177" t="n">
         <v>0</v>
-      </c>
-      <c r="L177" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D173" t="n">

--- a/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/before_last_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
